--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H2">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I2">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J2">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>12.857821713594</v>
+        <v>12.970653394524</v>
       </c>
       <c r="R2">
-        <v>115.720395422346</v>
+        <v>116.735880550716</v>
       </c>
       <c r="S2">
-        <v>0.01256077779388952</v>
+        <v>0.01105151855186713</v>
       </c>
       <c r="T2">
-        <v>0.01256077779388951</v>
+        <v>0.01105151855186713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H3">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I3">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J3">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>253.2304977769709</v>
+        <v>314.508762759802</v>
       </c>
       <c r="R3">
-        <v>2279.074479992738</v>
+        <v>2830.578864838218</v>
       </c>
       <c r="S3">
-        <v>0.2473803171379858</v>
+        <v>0.267974119779668</v>
       </c>
       <c r="T3">
-        <v>0.2473803171379858</v>
+        <v>0.267974119779668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H4">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I4">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J4">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>92.03892371417699</v>
+        <v>135.694259547104</v>
       </c>
       <c r="R4">
-        <v>828.3503134275929</v>
+        <v>1221.248335923936</v>
       </c>
       <c r="S4">
-        <v>0.08991262244212432</v>
+        <v>0.1156169686409022</v>
       </c>
       <c r="T4">
-        <v>0.08991262244212432</v>
+        <v>0.1156169686409022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.260042333333333</v>
+        <v>7.101114</v>
       </c>
       <c r="H5">
-        <v>9.780127</v>
+        <v>21.303342</v>
       </c>
       <c r="I5">
-        <v>0.1994802892067655</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J5">
-        <v>0.1994802892067655</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>7.331298387362445</v>
+        <v>0.8307285553659999</v>
       </c>
       <c r="R5">
-        <v>65.98168548626201</v>
+        <v>7.476556998294</v>
       </c>
       <c r="S5">
-        <v>0.007161929293746617</v>
+        <v>0.0007078141526061533</v>
       </c>
       <c r="T5">
-        <v>0.007161929293746616</v>
+        <v>0.0007078141526061533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>9.780127</v>
       </c>
       <c r="I6">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J6">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>144.3874694591925</v>
+        <v>5.954682484627333</v>
       </c>
       <c r="R6">
-        <v>1299.487225132733</v>
+        <v>53.592142361646</v>
       </c>
       <c r="S6">
-        <v>0.1410518018134804</v>
+        <v>0.005073629056892418</v>
       </c>
       <c r="T6">
-        <v>0.1410518018134804</v>
+        <v>0.005073629056892418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>9.780127</v>
       </c>
       <c r="I7">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J7">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>52.47893679276344</v>
+        <v>144.3874694591926</v>
       </c>
       <c r="R7">
-        <v>472.310431134871</v>
+        <v>1299.487225132733</v>
       </c>
       <c r="S7">
-        <v>0.05126655809953849</v>
+        <v>0.1230239332475799</v>
       </c>
       <c r="T7">
-        <v>0.0512665580995385</v>
+        <v>0.1230239332475799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.093744666666667</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H8">
-        <v>6.281234</v>
+        <v>9.780127</v>
       </c>
       <c r="I8">
-        <v>0.1281151435861077</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J8">
-        <v>0.1281151435861077</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>4.708486985378223</v>
+        <v>62.29572296880178</v>
       </c>
       <c r="R8">
-        <v>42.376382868404</v>
+        <v>560.661506719216</v>
       </c>
       <c r="S8">
-        <v>0.004599710595320208</v>
+        <v>0.05307846236815996</v>
       </c>
       <c r="T8">
-        <v>0.004599710595320208</v>
+        <v>0.05307846236815996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.093744666666667</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H9">
-        <v>6.281234</v>
+        <v>9.780127</v>
       </c>
       <c r="I9">
-        <v>0.1281151435861077</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J9">
-        <v>0.1281151435861077</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>92.73207621343177</v>
+        <v>0.3813782257265555</v>
       </c>
       <c r="R9">
-        <v>834.588685920886</v>
+        <v>3.432404031539</v>
       </c>
       <c r="S9">
-        <v>0.09058976159635705</v>
+        <v>0.0003249495926453962</v>
       </c>
       <c r="T9">
-        <v>0.09058976159635707</v>
+        <v>0.0003249495926453962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H10">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I10">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J10">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>33.70431509392022</v>
+        <v>5.739435076344666</v>
       </c>
       <c r="R10">
-        <v>303.338835845282</v>
+        <v>51.654915687102</v>
       </c>
       <c r="S10">
-        <v>0.03292567139443042</v>
+        <v>0.00489022960479685</v>
       </c>
       <c r="T10">
-        <v>0.03292567139443042</v>
+        <v>0.004890229604796851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.640944</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H11">
-        <v>7.922832</v>
+        <v>9.426599</v>
       </c>
       <c r="I11">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J11">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>5.939048180554667</v>
+        <v>139.1682107212468</v>
       </c>
       <c r="R11">
-        <v>53.451433624992</v>
+        <v>1252.513896491221</v>
       </c>
       <c r="S11">
-        <v>0.00580184312435136</v>
+        <v>0.1185769148118121</v>
       </c>
       <c r="T11">
-        <v>0.005801843124351359</v>
+        <v>0.1185769148118121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.640944</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H12">
-        <v>7.922832</v>
+        <v>9.426599</v>
       </c>
       <c r="I12">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J12">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>116.9675673363253</v>
+        <v>60.04388284957689</v>
       </c>
       <c r="R12">
-        <v>1052.708106026928</v>
+        <v>540.394945646192</v>
       </c>
       <c r="S12">
-        <v>0.1142653596487551</v>
+        <v>0.05115980398631165</v>
       </c>
       <c r="T12">
-        <v>0.1142653596487551</v>
+        <v>0.05115980398631165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.640944</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H13">
-        <v>7.922832</v>
+        <v>9.426599</v>
       </c>
       <c r="I13">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J13">
-        <v>0.1615979852507658</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>42.51292439737066</v>
+        <v>0.3675923228047777</v>
       </c>
       <c r="R13">
-        <v>382.616319576336</v>
+        <v>3.308330905242999</v>
       </c>
       <c r="S13">
-        <v>0.0415307824776593</v>
+        <v>0.0003132034486956558</v>
       </c>
       <c r="T13">
-        <v>0.04153078247765931</v>
+        <v>0.0003132034486956559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.630401</v>
+        <v>1.949111</v>
       </c>
       <c r="H14">
-        <v>7.891203</v>
+        <v>5.847333</v>
       </c>
       <c r="I14">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J14">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>5.915338709635334</v>
+        <v>3.560179882826</v>
       </c>
       <c r="R14">
-        <v>53.238048386718</v>
+        <v>32.041618945434</v>
       </c>
       <c r="S14">
-        <v>0.005778681394280585</v>
+        <v>0.003033416500023559</v>
       </c>
       <c r="T14">
-        <v>0.005778681394280583</v>
+        <v>0.003033416500023559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.630401</v>
+        <v>1.949111</v>
       </c>
       <c r="H15">
-        <v>7.891203</v>
+        <v>5.847333</v>
       </c>
       <c r="I15">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J15">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>116.5006172372596</v>
+        <v>86.32624248695635</v>
       </c>
       <c r="R15">
-        <v>1048.505555135337</v>
+        <v>776.9361823826071</v>
       </c>
       <c r="S15">
-        <v>0.1138091971224854</v>
+        <v>0.07355343183870423</v>
       </c>
       <c r="T15">
-        <v>0.1138091971224854</v>
+        <v>0.07355343183870422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.630401</v>
+        <v>1.949111</v>
       </c>
       <c r="H16">
-        <v>7.891203</v>
+        <v>5.847333</v>
       </c>
       <c r="I16">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J16">
-        <v>0.1609528645823613</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>42.34320714402433</v>
+        <v>37.24530741516267</v>
       </c>
       <c r="R16">
-        <v>381.088864296219</v>
+        <v>335.207766736464</v>
       </c>
       <c r="S16">
-        <v>0.04136498606559531</v>
+        <v>0.03173450044100653</v>
       </c>
       <c r="T16">
-        <v>0.04136498606559531</v>
+        <v>0.03173450044100653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.949111</v>
+      </c>
+      <c r="H17">
+        <v>5.847333</v>
+      </c>
+      <c r="I17">
+        <v>0.108515629332166</v>
+      </c>
+      <c r="J17">
+        <v>0.108515629332166</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.2280180497423333</v>
+      </c>
+      <c r="R17">
+        <v>2.052162447681</v>
+      </c>
+      <c r="S17">
+        <v>0.0001942805524316793</v>
+      </c>
+      <c r="T17">
+        <v>0.0001942805524316793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.509102333333333</v>
+      </c>
+      <c r="H18">
+        <v>7.527307</v>
+      </c>
+      <c r="I18">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="J18">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>4.583041012587333</v>
+      </c>
+      <c r="R18">
+        <v>41.24736911328601</v>
+      </c>
+      <c r="S18">
+        <v>0.003904935336253783</v>
+      </c>
+      <c r="T18">
+        <v>0.003904935336253783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.509102333333333</v>
+      </c>
+      <c r="H19">
+        <v>7.527307</v>
+      </c>
+      <c r="I19">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="J19">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>111.1282920531059</v>
+      </c>
+      <c r="R19">
+        <v>1000.154628477953</v>
+      </c>
+      <c r="S19">
+        <v>0.09468577595178883</v>
+      </c>
+      <c r="T19">
+        <v>0.09468577595178883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.509102333333333</v>
+      </c>
+      <c r="H20">
+        <v>7.527307</v>
+      </c>
+      <c r="I20">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="J20">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>47.94610863162845</v>
+      </c>
+      <c r="R20">
+        <v>431.514977684656</v>
+      </c>
+      <c r="S20">
+        <v>0.04085201361220432</v>
+      </c>
+      <c r="T20">
+        <v>0.04085201361220432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.509102333333333</v>
+      </c>
+      <c r="H21">
+        <v>7.527307</v>
+      </c>
+      <c r="I21">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="J21">
+        <v>0.1396928234258966</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>0.2935290091998888</v>
+      </c>
+      <c r="R21">
+        <v>2.641761082799</v>
+      </c>
+      <c r="S21">
+        <v>0.0002500985256497016</v>
+      </c>
+      <c r="T21">
+        <v>0.0002500985256497016</v>
       </c>
     </row>
   </sheetData>
